--- a/sample/locationtest/Datas/Test/test2.xlsx
+++ b/sample/locationtest/Datas/Test/test2.xlsx
@@ -928,7 +928,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1194,7 +1194,7 @@
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1220,27 +1220,6 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
       <c r="A2" s="3" t="s">

--- a/sample/locationtest/Datas/Test/test2.xlsx
+++ b/sample/locationtest/Datas/Test/test2.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+  <si>
+    <t>TestConfig2</t>
+  </si>
   <si>
     <t>##var</t>
   </si>
@@ -1178,15 +1181,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="7" width="12.3796296296296" customWidth="1"/>
@@ -1194,97 +1197,54 @@
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:30">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:30">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1309,23 +1269,29 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -1349,28 +1315,26 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:30">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:30">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1393,150 +1357,178 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:30">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>10004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
-        <v>10006</v>
-      </c>
-      <c r="C12" t="s">
+        <v>10005</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13">
-        <v>10007</v>
-      </c>
-      <c r="C13" s="7" t="s">
+        <v>10006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
@@ -1552,13 +1544,13 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1566,11 +1558,27 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
+    <row r="16" spans="2:9">
+      <c r="B16">
+        <v>10009</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
